--- a/medicine/Psychotrope/Narc/Narc.xlsx
+++ b/medicine/Psychotrope/Narc/Narc.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Narc ou Narco au Québec est un film américain écrit et réalisé par Joe Carnahan et sorti en 2002.
 Malgré des critiques globalement positives, le film peine à trouver son public en salles.
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Nick Tellis est un officier sous couverture du Detroit Police Department. Lors de la poursuite d'un suspect, il touche par accident une femme enceinte provoquant la mort du futur bébé. Dix-huit mois après, toujours hanté par son acte, il est sur le point de toucher le fond, malgré le soutien de sa femme et la naissance de son fils, aujourd'hui âgé de 10 mois. C'est alors que le capitaine Cheevers lui demande d'élucider l'enquête sur la mort du policier Michael Calvess, qui travaillait lui aussi sous couverture. D'abord réticent, Nick accepte de retourner dans les rues, contre l'avis de sa femme. Il va devoir faire équipe avec l'ancien coéquipier de Michael Calvess, le lieutenant Harry Oak. Ce dernier est connu pour sa brutalité et ses méthodes très particulières.
 </t>
@@ -543,7 +557,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve"> Sauf indication contraire ou complémentaire, les informations mentionnées dans cette section peuvent être confirmées par la base de données IMDb.
 Titre original et français : Narc
@@ -559,16 +575,16 @@
 Producteur délégué : Tom Cruise
 Sociétés de production : Cruise/Wagner Productions, Splendid Pictures, Emmett/Furla Films et Tiara Blu Films
 Sociétés de distribution : Paramount Pictures (États-Unis), Mars Films (France)
-Budget : 6,5 millions de dollars[1]
+Budget : 6,5 millions de dollars
 Pays de production :  États-Unis
 Langue originale : anglais
 Format : couleur
 Genre : policier, thriller, crime, néo-noir
 Durée : 105 minutes
-Dates de sortie[2] :
+Dates de sortie :
 États-Unis : 20 décembre 2002
 France : 30 juillet 2003
-Classification[3] :
+Classification :
 États-Unis : R - Restricted
 France : interdit aux moins de 12 ans</t>
         </is>
@@ -598,7 +614,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Jason Patric (VF : Julien Kramer ; VQ : François Godin) : l'officier Nick Tellis
 Ray Liotta (VF : Emmanuel Jacomy ; VQ : Daniel Picard) : le lieutenant Henry Oak
@@ -612,7 +630,7 @@
 Busta Rhymes (VF : Frantz Confiac ; VQ : Manuel Tadros) : Darnell Beery
 Richard Chevolleau (VF : Lucien Jean-Baptiste ; VQ : Antoine Durand) : Latroy Steeds
 Dan Leis (VF : Bruno Dubernat) : Elvin Dowd
-Sources et légende : VF = Version Française[4] et VQ = Version Québécoise[5]</t>
+Sources et légende : VF = Version Française et VQ = Version Québécoise</t>
         </is>
       </c>
     </row>
@@ -640,13 +658,15 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joe Carnahan a eu l'idée du scénario après avoir vu Le Dossier Adams (1988), un documentaire sur Randall Dale Adams, un américain jugé et condamné à mort en 1976 pour le meurtre d'un policier alors qu'il n'avait pas commis ce crime[6],[7]. Il en fera tout d'abord un court métrage, Gunpoint, tourné durant ses études. Joe Carnahan déclare à ce propos : « Ce n'était pas très bon, mais l'histoire en elle-même me fascinait. D'ailleurs, j'ai continué à y penser pendant de nombreuses années et ai décidé d'y revenir pour mon second film. Il m'a fallu près de sept mois pour écrire le scénario. Ensuite j'ai mis trois ans à le produire. Personne n'en voulait, reprochant au script de n'être qu'un épisode de feuilleton télé inventé de toutes pièces et qui n'avait pas l'étoffe d'un long métrage[8]. » Le cinéaste trouvera finalement du soutien auprès de Ray Liotta et sa société fraichement créée, Tiara Blu Films. L'acteur déclare alors « Le scénario était brillamment écrit, l'intrigue bien ficelée et Joe Carnahan était tellement enthousiaste qu'il nous a tout de suite convaincus. Narc était le film idéal pour lancer Tiara Blu[8]. »
-Harrison Ford et Alec Baldwin ont été d'abord envisagés pour incarner Henry Oak mais tous deux refusèrent et le rôle revint à Ray Liotta. Ce dernier prendra plus de 10 kilos pour le rôle[7].
-En raison de problèmes financiers et juridiques, la production connait d'importants soucis de budget. Ray Liotta et Jason Patric travailleront quasiment gratuitement par sympathie pour Joe Carnahan et pour que le film se fasse[7]. Le tournage a lieu à Détroit et Toronto[9]. Il ne dure que 28 jours[7].
-Tom Cruise, très impressionné par le film, s'impliquera tardivement dans le projet pour lui assurer une sortie en salles plus importante que prévu[7].
-Joe Carnahan cite French Connection (1971) et Serpico (1973) comme principales influences : « Les trois quarts du film ont été tournés caméra au poing pour ajouter au côté nerveux et brut du film. Le chef opérateur Alex Nepomniaschy a utilisé des effets spéciaux pour donner une tonalité grisâtre à la lumière. Je voulais que Narc ait la rudesse des films qui se faisaient il y 25 ou 30 ans[8]. »
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joe Carnahan a eu l'idée du scénario après avoir vu Le Dossier Adams (1988), un documentaire sur Randall Dale Adams, un américain jugé et condamné à mort en 1976 pour le meurtre d'un policier alors qu'il n'avait pas commis ce crime,. Il en fera tout d'abord un court métrage, Gunpoint, tourné durant ses études. Joe Carnahan déclare à ce propos : « Ce n'était pas très bon, mais l'histoire en elle-même me fascinait. D'ailleurs, j'ai continué à y penser pendant de nombreuses années et ai décidé d'y revenir pour mon second film. Il m'a fallu près de sept mois pour écrire le scénario. Ensuite j'ai mis trois ans à le produire. Personne n'en voulait, reprochant au script de n'être qu'un épisode de feuilleton télé inventé de toutes pièces et qui n'avait pas l'étoffe d'un long métrage. » Le cinéaste trouvera finalement du soutien auprès de Ray Liotta et sa société fraichement créée, Tiara Blu Films. L'acteur déclare alors « Le scénario était brillamment écrit, l'intrigue bien ficelée et Joe Carnahan était tellement enthousiaste qu'il nous a tout de suite convaincus. Narc était le film idéal pour lancer Tiara Blu. »
+Harrison Ford et Alec Baldwin ont été d'abord envisagés pour incarner Henry Oak mais tous deux refusèrent et le rôle revint à Ray Liotta. Ce dernier prendra plus de 10 kilos pour le rôle.
+En raison de problèmes financiers et juridiques, la production connait d'importants soucis de budget. Ray Liotta et Jason Patric travailleront quasiment gratuitement par sympathie pour Joe Carnahan et pour que le film se fasse. Le tournage a lieu à Détroit et Toronto. Il ne dure que 28 jours.
+Tom Cruise, très impressionné par le film, s'impliquera tardivement dans le projet pour lui assurer une sortie en salles plus importante que prévu.
+Joe Carnahan cite French Connection (1971) et Serpico (1973) comme principales influences : « Les trois quarts du film ont été tournés caméra au poing pour ajouter au côté nerveux et brut du film. Le chef opérateur Alex Nepomniaschy a utilisé des effets spéciaux pour donner une tonalité grisâtre à la lumière. Je voulais que Narc ait la rudesse des films qui se faisaient il y 25 ou 30 ans. »
 </t>
         </is>
       </c>
@@ -677,11 +697,14 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t xml:space="preserve">Critique
-Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 84% d'opinions favorables pour 158 critiques et une note moyenne de 7,1⁄10. Le consensus du site résume les avis : « Jason Patric et Ray Liotta sont électrisants dans ce drame policier graveleux, bien qu'un peu trop familier »[10]. Sur Metacritic, il obtient une note moyenne de 70⁄100 pour 34 critiques[11].
-En France, le film obtient une note moyenne de 3,8⁄5 sur le site AlloCiné, qui recense 15 titres de presse[12].
-Box-office
-Le film ne récolte que 12 millions de dollars dans le monde pour un budget de 6,5 millions[1].
+          <t>Critique</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film reçoit des critiques globalement positives. Sur l'agrégateur américain Rotten Tomatoes, il récolte 84% d'opinions favorables pour 158 critiques et une note moyenne de 7,1⁄10. Le consensus du site résume les avis : « Jason Patric et Ray Liotta sont électrisants dans ce drame policier graveleux, bien qu'un peu trop familier ». Sur Metacritic, il obtient une note moyenne de 70⁄100 pour 34 critiques.
+En France, le film obtient une note moyenne de 3,8⁄5 sur le site AlloCiné, qui recense 15 titres de presse.
 </t>
         </is>
       </c>
@@ -707,12 +730,18 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Distinctions</t>
+          <t>Accueil</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t xml:space="preserve">En 2002, le film a remporté le Prix « Spécial police » au festival du film policier de Cognac[15].
+          <t>Box-office</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le film ne récolte que 12 millions de dollars dans le monde pour un budget de 6,5 millions.
 </t>
         </is>
       </c>
@@ -738,10 +767,45 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2002, le film a remporté le Prix « Spécial police » au festival du film policier de Cognac.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Narc</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Narc</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>Clin d’œil</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t xml:space="preserve">Quand Nick Tellis et Henry Oak vont appréhender Darnell Beery, interprété par le rappeur Busta Rhymes, on peut entendre dans le hangar sa chanson Bladow!! tirée de l'album Anarchy (2000).
 </t>
